--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -1019,10 +1019,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2107,7 +2107,7 @@
       <c s="4" t="s">
         <v>205</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>74</v>
       </c>
       <c s="4" t="s">
@@ -2364,13 +2364,13 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="8"/>
+      <c s="7"/>
     </row>
     <row s="2" customFormat="1">
       <c s="4" t="s">
         <v>0</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>205</v>
       </c>
       <c s="4"/>
@@ -2625,13 +2625,13 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="8"/>
+      <c s="7"/>
     </row>
     <row s="2" customFormat="1">
       <c s="4" t="s">
         <v>244</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>89</v>
       </c>
       <c s="4"/>
@@ -2886,13 +2886,13 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="8"/>
+      <c s="7"/>
     </row>
     <row s="2" customFormat="1">
       <c s="4" t="s">
         <v>89</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>244</v>
       </c>
       <c s="4"/>
@@ -3147,7 +3147,7 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="8"/>
+      <c s="7"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -1013,10 +1013,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -1330,9 +1330,9 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="255" width="9.140625" style="6" customWidth="1"/>
+    <col min="4" max="255" width="9.140625" style="5" customWidth="1"/>
     <col min="256" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3240,10 +3240,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="230.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="210.3203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3259,9 +3259,9 @@
       <c s="4" t="s">
         <v>45</v>
       </c>
-      <c s="5" t="str">
-        <f>"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
-        <v>DSN=Flights;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      <c s="6" t="str">
+        <f>"DSN=Flight;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
+        <v>DSN=Flight;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
   </sheetData>
@@ -3278,14 +3278,14 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="224.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="209.3828125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3301,63 +3301,63 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
-        <f t="shared" si="0" ref="B2:B8">"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      <c s="6" t="str">
+        <f t="shared" si="0" ref="B2:B8">"DSN=Flight;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
+      <c s="6" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
+      <c s="6" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
+      <c s="6" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
+      <c s="6" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
+      <c s="6" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="str">
+      <c s="6" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
   </sheetData>

--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>Denver</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>Sydney</t>
@@ -1007,22 +1010,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1329,788 +1332,788 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="255" width="9.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
+    <col min="4" max="255" width="9.140625" style="6" customWidth="1"/>
     <col min="256" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>157</v>
+      </c>
+      <c t="s">
+        <v>66</v>
+      </c>
+      <c t="s">
+        <v>134</v>
+      </c>
+      <c t="s">
+        <v>207</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>76</v>
+      </c>
+      <c t="s">
+        <v>142</v>
+      </c>
+      <c t="s">
+        <v>208</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>77</v>
+      </c>
+      <c t="s">
+        <v>143</v>
+      </c>
+      <c t="s">
+        <v>209</v>
+      </c>
+      <c t="s">
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>91</v>
+      </c>
+      <c t="s">
+        <v>158</v>
+      </c>
+      <c t="s">
+        <v>223</v>
+      </c>
+      <c t="s">
+        <v>23</v>
+      </c>
+      <c t="s">
+        <v>92</v>
+      </c>
+      <c t="s">
+        <v>159</v>
+      </c>
+      <c t="s">
+        <v>224</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
+        <v>115</v>
+      </c>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c t="s">
+        <v>246</v>
+      </c>
+      <c t="s">
+        <v>46</v>
+      </c>
+      <c t="s">
+        <v>67</v>
+      </c>
+      <c t="s">
+        <v>135</v>
+      </c>
+      <c t="s">
+        <v>201</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>78</v>
+      </c>
+      <c t="s">
+        <v>144</v>
+      </c>
+      <c t="s">
+        <v>210</v>
+      </c>
+      <c t="s">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>79</v>
+      </c>
+      <c t="s">
+        <v>145</v>
+      </c>
+      <c t="s">
+        <v>211</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>93</v>
+      </c>
+      <c t="s">
+        <v>160</v>
+      </c>
+      <c t="s">
+        <v>225</v>
+      </c>
+      <c t="s">
+        <v>25</v>
+      </c>
+      <c t="s">
+        <v>94</v>
+      </c>
+      <c t="s">
+        <v>161</v>
+      </c>
+      <c t="s">
+        <v>226</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>95</v>
+      </c>
+      <c t="s">
+        <v>183</v>
+      </c>
+      <c t="s">
+        <v>247</v>
+      </c>
+      <c t="s">
+        <v>47</v>
+      </c>
+      <c t="s">
+        <v>116</v>
+      </c>
+      <c t="s">
+        <v>184</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>68</v>
+      </c>
+      <c t="s">
+        <v>146</v>
+      </c>
+      <c t="s">
+        <v>212</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>80</v>
+      </c>
+      <c t="s">
+        <v>147</v>
+      </c>
+      <c t="s">
+        <v>213</v>
+      </c>
+      <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>81</v>
+      </c>
+      <c t="s">
+        <v>148</v>
+      </c>
+      <c t="s">
+        <v>227</v>
+      </c>
+      <c t="s">
+        <v>27</v>
+      </c>
+      <c t="s">
+        <v>96</v>
+      </c>
+      <c t="s">
+        <v>162</v>
+      </c>
+      <c t="s">
+        <v>228</v>
+      </c>
+      <c t="s">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>97</v>
+      </c>
+      <c t="s">
+        <v>163</v>
+      </c>
+      <c t="s">
+        <v>229</v>
+      </c>
+      <c t="s">
+        <v>48</v>
+      </c>
+      <c t="s">
+        <v>117</v>
+      </c>
+      <c t="s">
+        <v>185</v>
+      </c>
+      <c t="s">
+        <v>248</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>118</v>
+      </c>
+      <c t="s">
+        <v>214</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>82</v>
+      </c>
+      <c t="s">
+        <v>149</v>
+      </c>
+      <c t="s">
+        <v>215</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>83</v>
+      </c>
+      <c t="s">
+        <v>150</v>
+      </c>
+      <c t="s">
+        <v>216</v>
+      </c>
+      <c t="s">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c t="s">
+        <v>164</v>
+      </c>
+      <c t="s">
+        <v>230</v>
+      </c>
+      <c t="s">
+        <v>30</v>
+      </c>
+      <c t="s">
+        <v>99</v>
+      </c>
+      <c t="s">
+        <v>165</v>
+      </c>
+      <c t="s">
+        <v>231</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>119</v>
+      </c>
+      <c t="s">
+        <v>186</v>
+      </c>
+      <c t="s">
+        <v>249</v>
+      </c>
+      <c t="s">
+        <v>50</v>
+      </c>
+      <c t="s">
+        <v>120</v>
+      </c>
+      <c t="s">
+        <v>187</v>
+      </c>
+      <c t="s">
+        <v>250</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c t="s">
+        <v>151</v>
+      </c>
+      <c t="s">
+        <v>217</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>84</v>
+      </c>
+      <c t="s">
+        <v>152</v>
+      </c>
+      <c t="s">
+        <v>218</v>
+      </c>
+      <c t="s">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>166</v>
+      </c>
+      <c t="s">
+        <v>232</v>
+      </c>
+      <c t="s">
+        <v>32</v>
+      </c>
+      <c t="s">
+        <v>100</v>
+      </c>
+      <c t="s">
+        <v>167</v>
+      </c>
+      <c t="s">
+        <v>233</v>
+      </c>
+      <c t="s">
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>101</v>
+      </c>
+      <c t="s">
+        <v>168</v>
+      </c>
+      <c t="s">
+        <v>251</v>
+      </c>
+      <c t="s">
+        <v>52</v>
+      </c>
+      <c t="s">
+        <v>121</v>
+      </c>
+      <c t="s">
+        <v>188</v>
+      </c>
+      <c t="s">
+        <v>252</v>
+      </c>
+      <c t="s">
+        <v>53</v>
+      </c>
+      <c t="s">
+        <v>122</v>
+      </c>
+      <c t="s">
+        <v>189</v>
+      </c>
+      <c t="s">
+        <v>253</v>
+      </c>
+      <c t="s">
+        <v>86</v>
+      </c>
+      <c t="s">
+        <v>153</v>
+      </c>
+      <c t="s">
+        <v>219</v>
+      </c>
+      <c t="s">
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>87</v>
+      </c>
+      <c t="s">
+        <v>154</v>
+      </c>
+      <c t="s">
+        <v>234</v>
+      </c>
+      <c t="s">
+        <v>34</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>169</v>
+      </c>
+      <c t="s">
+        <v>235</v>
+      </c>
+      <c t="s">
+        <v>35</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>170</v>
+      </c>
+      <c t="s">
+        <v>236</v>
+      </c>
+      <c t="s">
+        <v>54</v>
+      </c>
+      <c t="s">
+        <v>123</v>
+      </c>
+      <c t="s">
+        <v>190</v>
+      </c>
+      <c t="s">
+        <v>254</v>
+      </c>
+      <c t="s">
+        <v>55</v>
+      </c>
+      <c t="s">
+        <v>124</v>
+      </c>
+      <c t="s">
+        <v>191</v>
+      </c>
+      <c t="s">
+        <v>255</v>
+      </c>
+      <c t="s">
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>136</v>
+      </c>
+      <c t="s">
+        <v>202</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>88</v>
+      </c>
+      <c t="s">
+        <v>155</v>
+      </c>
+      <c t="s">
+        <v>220</v>
+      </c>
+      <c t="s">
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>104</v>
+      </c>
+      <c t="s">
+        <v>171</v>
+      </c>
+      <c t="s">
+        <v>237</v>
+      </c>
+      <c t="s">
+        <v>36</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="s">
+        <v>172</v>
+      </c>
+      <c t="s">
+        <v>238</v>
+      </c>
+      <c t="s">
+        <v>37</v>
+      </c>
+      <c t="s">
+        <v>106</v>
+      </c>
+      <c t="s">
+        <v>192</v>
+      </c>
+      <c t="s">
+        <v>256</v>
+      </c>
+      <c t="s">
+        <v>57</v>
+      </c>
+      <c t="s">
+        <v>125</v>
+      </c>
+      <c t="s">
+        <v>193</v>
+      </c>
+      <c t="s">
+        <v>257</v>
+      </c>
+      <c t="s">
+        <v>58</v>
+      </c>
+      <c t="s">
+        <v>126</v>
+      </c>
+      <c t="s">
+        <v>194</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>69</v>
+      </c>
+      <c t="s">
+        <v>137</v>
+      </c>
+      <c t="s">
+        <v>221</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>89</v>
+      </c>
+      <c t="s">
+        <v>173</v>
+      </c>
+      <c t="s">
+        <v>239</v>
+      </c>
+      <c t="s">
+        <v>38</v>
+      </c>
+      <c t="s">
+        <v>107</v>
+      </c>
+      <c t="s">
+        <v>174</v>
+      </c>
+      <c t="s">
+        <v>240</v>
+      </c>
+      <c t="s">
+        <v>39</v>
+      </c>
+      <c t="s">
+        <v>108</v>
+      </c>
+      <c t="s">
+        <v>175</v>
+      </c>
+      <c t="s">
+        <v>258</v>
+      </c>
+      <c t="s">
+        <v>59</v>
+      </c>
+      <c t="s">
+        <v>127</v>
+      </c>
+      <c t="s">
+        <v>195</v>
+      </c>
+      <c t="s">
+        <v>259</v>
+      </c>
+      <c t="s">
+        <v>60</v>
+      </c>
+      <c t="s">
+        <v>128</v>
+      </c>
+      <c t="s">
+        <v>196</v>
+      </c>
+      <c t="s">
+        <v>260</v>
+      </c>
+      <c t="s">
+        <v>70</v>
+      </c>
+      <c t="s">
+        <v>138</v>
+      </c>
+      <c t="s">
+        <v>203</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>71</v>
+      </c>
+      <c t="s">
+        <v>156</v>
+      </c>
+      <c t="s">
+        <v>222</v>
+      </c>
+      <c t="s">
+        <v>40</v>
+      </c>
+      <c t="s">
+        <v>109</v>
+      </c>
+      <c t="s">
+        <v>176</v>
+      </c>
+      <c t="s">
+        <v>241</v>
+      </c>
+      <c t="s">
+        <v>41</v>
+      </c>
+      <c t="s">
+        <v>110</v>
+      </c>
+      <c t="s">
+        <v>177</v>
+      </c>
+      <c t="s">
+        <v>242</v>
+      </c>
+      <c t="s">
+        <v>42</v>
+      </c>
+      <c t="s">
+        <v>129</v>
+      </c>
+      <c t="s">
+        <v>197</v>
+      </c>
+      <c t="s">
+        <v>261</v>
+      </c>
+      <c t="s">
+        <v>61</v>
+      </c>
+      <c t="s">
+        <v>130</v>
+      </c>
+      <c t="s">
+        <v>198</v>
+      </c>
+      <c t="s">
+        <v>262</v>
+      </c>
+      <c t="s">
+        <v>62</v>
+      </c>
+      <c t="s">
+        <v>131</v>
+      </c>
+      <c t="s">
+        <v>204</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>72</v>
+      </c>
+      <c t="s">
+        <v>139</v>
+      </c>
+      <c t="s">
+        <v>205</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>111</v>
+      </c>
+      <c t="s">
+        <v>178</v>
+      </c>
+      <c t="s">
+        <v>243</v>
+      </c>
+      <c t="s">
+        <v>43</v>
+      </c>
+      <c t="s">
+        <v>112</v>
+      </c>
+      <c t="s">
+        <v>179</v>
+      </c>
+      <c t="s">
+        <v>244</v>
+      </c>
+      <c t="s">
+        <v>44</v>
+      </c>
+      <c t="s">
+        <v>113</v>
+      </c>
+      <c t="s">
+        <v>180</v>
+      </c>
+      <c t="s">
+        <v>263</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>132</v>
+      </c>
+      <c t="s">
+        <v>199</v>
+      </c>
+      <c t="s">
+        <v>264</v>
+      </c>
+      <c t="s">
+        <v>64</v>
+      </c>
+      <c t="s">
+        <v>133</v>
+      </c>
+      <c t="s">
+        <v>200</v>
+      </c>
+      <c t="s">
+        <v>265</v>
+      </c>
+      <c t="s">
+        <v>73</v>
+      </c>
+      <c t="s">
         <v>140</v>
-      </c>
-      <c t="s">
-        <v>156</v>
-      </c>
-      <c t="s">
-        <v>66</v>
-      </c>
-      <c t="s">
-        <v>133</v>
-      </c>
-      <c t="s">
-        <v>206</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>75</v>
-      </c>
-      <c t="s">
-        <v>141</v>
-      </c>
-      <c t="s">
-        <v>207</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>76</v>
-      </c>
-      <c t="s">
-        <v>142</v>
-      </c>
-      <c t="s">
-        <v>208</v>
-      </c>
-      <c t="s">
-        <v>22</v>
-      </c>
-      <c t="s">
-        <v>90</v>
-      </c>
-      <c t="s">
-        <v>157</v>
-      </c>
-      <c t="s">
-        <v>222</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>91</v>
-      </c>
-      <c t="s">
-        <v>158</v>
-      </c>
-      <c t="s">
-        <v>223</v>
-      </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
-        <v>114</v>
-      </c>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c t="s">
-        <v>245</v>
-      </c>
-      <c t="s">
-        <v>46</v>
-      </c>
-      <c t="s">
-        <v>67</v>
-      </c>
-      <c t="s">
-        <v>134</v>
-      </c>
-      <c t="s">
-        <v>200</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>77</v>
-      </c>
-      <c t="s">
-        <v>143</v>
-      </c>
-      <c t="s">
-        <v>209</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>78</v>
-      </c>
-      <c t="s">
-        <v>144</v>
-      </c>
-      <c t="s">
-        <v>210</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>92</v>
-      </c>
-      <c t="s">
-        <v>159</v>
-      </c>
-      <c t="s">
-        <v>224</v>
-      </c>
-      <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>93</v>
-      </c>
-      <c t="s">
-        <v>160</v>
-      </c>
-      <c t="s">
-        <v>225</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>94</v>
-      </c>
-      <c t="s">
-        <v>182</v>
-      </c>
-      <c t="s">
-        <v>246</v>
-      </c>
-      <c t="s">
-        <v>47</v>
-      </c>
-      <c t="s">
-        <v>115</v>
-      </c>
-      <c t="s">
-        <v>183</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>68</v>
-      </c>
-      <c t="s">
-        <v>145</v>
-      </c>
-      <c t="s">
-        <v>211</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>79</v>
-      </c>
-      <c t="s">
-        <v>146</v>
-      </c>
-      <c t="s">
-        <v>212</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>80</v>
-      </c>
-      <c t="s">
-        <v>147</v>
-      </c>
-      <c t="s">
-        <v>226</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>95</v>
-      </c>
-      <c t="s">
-        <v>161</v>
-      </c>
-      <c t="s">
-        <v>227</v>
-      </c>
-      <c t="s">
-        <v>28</v>
-      </c>
-      <c t="s">
-        <v>96</v>
-      </c>
-      <c t="s">
-        <v>162</v>
-      </c>
-      <c t="s">
-        <v>228</v>
-      </c>
-      <c t="s">
-        <v>48</v>
-      </c>
-      <c t="s">
-        <v>116</v>
-      </c>
-      <c t="s">
-        <v>184</v>
-      </c>
-      <c t="s">
-        <v>247</v>
-      </c>
-      <c t="s">
-        <v>49</v>
-      </c>
-      <c t="s">
-        <v>117</v>
-      </c>
-      <c t="s">
-        <v>213</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>81</v>
-      </c>
-      <c t="s">
-        <v>148</v>
-      </c>
-      <c t="s">
-        <v>214</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>82</v>
-      </c>
-      <c t="s">
-        <v>149</v>
-      </c>
-      <c t="s">
-        <v>215</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>97</v>
-      </c>
-      <c t="s">
-        <v>163</v>
-      </c>
-      <c t="s">
-        <v>229</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>98</v>
-      </c>
-      <c t="s">
-        <v>164</v>
-      </c>
-      <c t="s">
-        <v>230</v>
-      </c>
-      <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>118</v>
-      </c>
-      <c t="s">
-        <v>185</v>
-      </c>
-      <c t="s">
-        <v>248</v>
-      </c>
-      <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>119</v>
-      </c>
-      <c t="s">
-        <v>186</v>
-      </c>
-      <c t="s">
-        <v>249</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c t="s">
-        <v>150</v>
-      </c>
-      <c t="s">
-        <v>216</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>83</v>
-      </c>
-      <c t="s">
-        <v>151</v>
-      </c>
-      <c t="s">
-        <v>217</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>84</v>
-      </c>
-      <c t="s">
-        <v>165</v>
-      </c>
-      <c t="s">
-        <v>231</v>
-      </c>
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
-        <v>99</v>
-      </c>
-      <c t="s">
-        <v>166</v>
-      </c>
-      <c t="s">
-        <v>232</v>
-      </c>
-      <c t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
-        <v>100</v>
-      </c>
-      <c t="s">
-        <v>167</v>
-      </c>
-      <c t="s">
-        <v>250</v>
-      </c>
-      <c t="s">
-        <v>52</v>
-      </c>
-      <c t="s">
-        <v>120</v>
-      </c>
-      <c t="s">
-        <v>187</v>
-      </c>
-      <c t="s">
-        <v>251</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>121</v>
-      </c>
-      <c t="s">
-        <v>188</v>
-      </c>
-      <c t="s">
-        <v>252</v>
-      </c>
-      <c t="s">
-        <v>85</v>
-      </c>
-      <c t="s">
-        <v>152</v>
-      </c>
-      <c t="s">
-        <v>218</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>86</v>
-      </c>
-      <c t="s">
-        <v>153</v>
-      </c>
-      <c t="s">
-        <v>233</v>
-      </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>168</v>
-      </c>
-      <c t="s">
-        <v>234</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>169</v>
-      </c>
-      <c t="s">
-        <v>235</v>
-      </c>
-      <c t="s">
-        <v>54</v>
-      </c>
-      <c t="s">
-        <v>122</v>
-      </c>
-      <c t="s">
-        <v>189</v>
-      </c>
-      <c t="s">
-        <v>253</v>
-      </c>
-      <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>123</v>
-      </c>
-      <c t="s">
-        <v>190</v>
-      </c>
-      <c t="s">
-        <v>254</v>
-      </c>
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
-        <v>135</v>
-      </c>
-      <c t="s">
-        <v>201</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="s">
-        <v>87</v>
-      </c>
-      <c t="s">
-        <v>154</v>
-      </c>
-      <c t="s">
-        <v>219</v>
-      </c>
-      <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>103</v>
-      </c>
-      <c t="s">
-        <v>170</v>
-      </c>
-      <c t="s">
-        <v>236</v>
-      </c>
-      <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="s">
-        <v>171</v>
-      </c>
-      <c t="s">
-        <v>237</v>
-      </c>
-      <c t="s">
-        <v>37</v>
-      </c>
-      <c t="s">
-        <v>105</v>
-      </c>
-      <c t="s">
-        <v>191</v>
-      </c>
-      <c t="s">
-        <v>255</v>
-      </c>
-      <c t="s">
-        <v>57</v>
-      </c>
-      <c t="s">
-        <v>124</v>
-      </c>
-      <c t="s">
-        <v>192</v>
-      </c>
-      <c t="s">
-        <v>256</v>
-      </c>
-      <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
-        <v>125</v>
-      </c>
-      <c t="s">
-        <v>193</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>69</v>
-      </c>
-      <c t="s">
-        <v>136</v>
-      </c>
-      <c t="s">
-        <v>220</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>88</v>
-      </c>
-      <c t="s">
-        <v>172</v>
-      </c>
-      <c t="s">
-        <v>238</v>
-      </c>
-      <c t="s">
-        <v>38</v>
-      </c>
-      <c t="s">
-        <v>106</v>
-      </c>
-      <c t="s">
-        <v>173</v>
-      </c>
-      <c t="s">
-        <v>239</v>
-      </c>
-      <c t="s">
-        <v>39</v>
-      </c>
-      <c t="s">
-        <v>107</v>
-      </c>
-      <c t="s">
-        <v>174</v>
-      </c>
-      <c t="s">
-        <v>257</v>
-      </c>
-      <c t="s">
-        <v>59</v>
-      </c>
-      <c t="s">
-        <v>126</v>
-      </c>
-      <c t="s">
-        <v>194</v>
-      </c>
-      <c t="s">
-        <v>258</v>
-      </c>
-      <c t="s">
-        <v>60</v>
-      </c>
-      <c t="s">
-        <v>127</v>
-      </c>
-      <c t="s">
-        <v>195</v>
-      </c>
-      <c t="s">
-        <v>259</v>
-      </c>
-      <c t="s">
-        <v>70</v>
-      </c>
-      <c t="s">
-        <v>137</v>
-      </c>
-      <c t="s">
-        <v>202</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>71</v>
-      </c>
-      <c t="s">
-        <v>155</v>
-      </c>
-      <c t="s">
-        <v>221</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>108</v>
-      </c>
-      <c t="s">
-        <v>175</v>
-      </c>
-      <c t="s">
-        <v>240</v>
-      </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>109</v>
-      </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
-        <v>241</v>
-      </c>
-      <c t="s">
-        <v>42</v>
-      </c>
-      <c t="s">
-        <v>128</v>
-      </c>
-      <c t="s">
-        <v>196</v>
-      </c>
-      <c t="s">
-        <v>260</v>
-      </c>
-      <c t="s">
-        <v>61</v>
-      </c>
-      <c t="s">
-        <v>129</v>
-      </c>
-      <c t="s">
-        <v>197</v>
-      </c>
-      <c t="s">
-        <v>261</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
-        <v>130</v>
-      </c>
-      <c t="s">
-        <v>203</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>72</v>
-      </c>
-      <c t="s">
-        <v>138</v>
-      </c>
-      <c t="s">
-        <v>204</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>110</v>
-      </c>
-      <c t="s">
-        <v>177</v>
-      </c>
-      <c t="s">
-        <v>242</v>
-      </c>
-      <c t="s">
-        <v>43</v>
-      </c>
-      <c t="s">
-        <v>111</v>
-      </c>
-      <c t="s">
-        <v>178</v>
-      </c>
-      <c t="s">
-        <v>243</v>
-      </c>
-      <c t="s">
-        <v>44</v>
-      </c>
-      <c t="s">
-        <v>112</v>
-      </c>
-      <c t="s">
-        <v>179</v>
-      </c>
-      <c t="s">
-        <v>262</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>131</v>
-      </c>
-      <c t="s">
-        <v>198</v>
-      </c>
-      <c t="s">
-        <v>263</v>
-      </c>
-      <c t="s">
-        <v>64</v>
-      </c>
-      <c t="s">
-        <v>132</v>
-      </c>
-      <c t="s">
-        <v>199</v>
-      </c>
-      <c t="s">
-        <v>264</v>
-      </c>
-      <c t="s">
-        <v>73</v>
-      </c>
-      <c t="s">
-        <v>139</v>
       </c>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
-        <v>205</v>
-      </c>
-      <c s="8" t="s">
-        <v>74</v>
-      </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
+        <v>206</v>
+      </c>
+      <c s="7" t="s">
+        <v>75</v>
+      </c>
+      <c s="3" t="s">
         <v>1</v>
       </c>
       <c s="1"/>
@@ -2364,790 +2367,790 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="7"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>0</v>
       </c>
-      <c s="8" t="s">
-        <v>205</v>
-      </c>
-      <c s="4"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="7"/>
+      <c s="7" t="s">
+        <v>206</v>
+      </c>
+      <c s="3"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
-        <v>244</v>
-      </c>
-      <c s="8" t="s">
-        <v>89</v>
-      </c>
-      <c s="4"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="7"/>
+      <c s="3" t="s">
+        <v>245</v>
+      </c>
+      <c s="7" t="s">
+        <v>90</v>
+      </c>
+      <c s="3"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
-        <v>89</v>
-      </c>
-      <c s="8" t="s">
-        <v>244</v>
-      </c>
-      <c s="4"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="7"/>
+      <c s="3" t="s">
+        <v>90</v>
+      </c>
+      <c s="7" t="s">
+        <v>245</v>
+      </c>
+      <c s="3"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3216,7 +3219,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
@@ -3242,26 +3245,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="210.3203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="211.078125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>180</v>
-      </c>
-      <c t="s">
-        <v>113</v>
+        <v>181</v>
+      </c>
+      <c t="s">
+        <v>114</v>
       </c>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>45</v>
       </c>
-      <c s="6" t="str">
-        <f>"DSN=Flight;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
-        <v>DSN=Flight;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      <c s="8" t="str">
+        <f>"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
+        <v>DSN=Flights;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
     </row>
   </sheetData>
@@ -3276,89 +3279,120 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="209.3828125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="210.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.41796875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>180</v>
-      </c>
-      <c t="s">
-        <v>113</v>
+        <v>181</v>
+      </c>
+      <c t="s">
+        <v>114</v>
+      </c>
+      <c t="s">
+        <v>74</v>
+      </c>
+      <c t="s">
+        <v>134</v>
+      </c>
+      <c t="s">
+        <v>207</v>
       </c>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
-        <f t="shared" si="0" ref="B2:B8">"DSN=Flight;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+      <c s="3" t="str">
+        <f t="shared" si="0" ref="B2:B8">"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row ht="12.75" customHeight="1" s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="6" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DSN=Flight;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
-      </c>
+        <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="4 Select Flight" sheetId="4" r:id="rId4"/>
     <sheet name="5 Flight Confirmation" sheetId="5" r:id="rId5"/>
     <sheet name="6 Search Order" sheetId="6" r:id="rId6"/>
+    <sheet name="1 Open Application {Reusable}" sheetId="7" r:id="rId7"/>
+    <sheet name="7 Close Application {Reusable}" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -1010,22 +1012,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1332,10 +1334,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4" max="255" width="9.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="255" width="9.140625" style="5" customWidth="1"/>
     <col min="256" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2107,13 +2109,13 @@
       </c>
     </row>
     <row s="2" customFormat="1">
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>206</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>75</v>
       </c>
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>1</v>
       </c>
       <c s="1"/>
@@ -2367,790 +2369,790 @@
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>0</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>206</v>
       </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="5"/>
+      <c s="4"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>245</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>90</v>
       </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="5"/>
+      <c s="4"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>90</v>
       </c>
-      <c s="7" t="s">
+      <c s="8" t="s">
         <v>245</v>
       </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="5"/>
+      <c s="4"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3245,8 +3247,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="211.078125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="211.078125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3259,10 +3261,10 @@
       </c>
     </row>
     <row s="2" customFormat="1">
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>45</v>
       </c>
-      <c s="8" t="str">
+      <c s="7" t="str">
         <f>"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
         <v>DSN=Flights;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3281,14 +3283,14 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="210.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="210.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.41796875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
@@ -3314,85 +3316,85 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0" ref="B2:B8">"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row ht="12.75" customHeight="1" s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
     <row s="2" customFormat="1">
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
       <c s="1"/>
       <c s="1"/>
-      <c s="5"/>
+      <c s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3402,4 +3404,42 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="12.75" customHeight="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="12.75" customHeight="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="6 Search Order" sheetId="6" r:id="rId6"/>
     <sheet name="1 Open Application {Reusable}" sheetId="7" r:id="rId7"/>
     <sheet name="7 Close Application {Reusable}" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -1004,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1012,10 +1013,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1028,6 +1029,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1334,9 +1338,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
     <col min="4" max="255" width="9.140625" style="5" customWidth="1"/>
     <col min="256" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
@@ -2109,13 +2113,13 @@
       </c>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>206</v>
       </c>
       <c s="8" t="s">
         <v>75</v>
       </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>1</v>
       </c>
       <c s="1"/>
@@ -2372,13 +2376,13 @@
       <c s="6"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>0</v>
       </c>
       <c s="8" t="s">
         <v>206</v>
       </c>
-      <c s="4"/>
+      <c s="3"/>
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
@@ -2633,13 +2637,13 @@
       <c s="6"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>245</v>
       </c>
       <c s="8" t="s">
         <v>90</v>
       </c>
-      <c s="4"/>
+      <c s="3"/>
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
@@ -2894,13 +2898,13 @@
       <c s="6"/>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>90</v>
       </c>
       <c s="8" t="s">
         <v>245</v>
       </c>
-      <c s="4"/>
+      <c s="3"/>
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
@@ -3247,8 +3251,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="211.078125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="211.078125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3261,7 +3265,7 @@
       </c>
     </row>
     <row s="2" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>45</v>
       </c>
       <c s="7" t="str">
@@ -3290,7 +3294,7 @@
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="210.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="210.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.41796875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
@@ -3316,7 +3320,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0" ref="B2:B8">"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3328,7 +3332,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3340,7 +3344,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3352,7 +3356,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3364,7 +3368,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3376,7 +3380,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="4" t="str">
+      <c s="3" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3429,7 +3433,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3442,4 +3446,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,7 @@
     <sheet name="4 Select Flight" sheetId="4" r:id="rId4"/>
     <sheet name="5 Flight Confirmation" sheetId="5" r:id="rId5"/>
     <sheet name="6 Search Order" sheetId="6" r:id="rId6"/>
-    <sheet name="1 Open Application {Reusable}" sheetId="7" r:id="rId7"/>
-    <sheet name="7 Close Application {Reusable}" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -1013,25 +1011,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1338,1825 +1336,1825 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4" max="255" width="9.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="255" width="9.140625" style="6" customWidth="1"/>
     <col min="256" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
+    <row r="1" ht="12.75" customHeight="1" customFormat="1">
+      <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c t="s">
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c t="s">
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c t="s">
+      <c r="H1" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="I1" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c t="s">
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="M1" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c t="s">
+      <c r="P1" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="Q1" t="s">
         <v>223</v>
       </c>
-      <c t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c t="s">
+      <c r="T1" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="U1" t="s">
         <v>224</v>
       </c>
-      <c t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c t="s">
+      <c r="W1" t="s">
         <v>115</v>
       </c>
-      <c t="s">
+      <c r="X1" t="s">
         <v>182</v>
       </c>
-      <c t="s">
+      <c r="Y1" t="s">
         <v>246</v>
       </c>
-      <c t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c t="s">
+      <c r="AA1" t="s">
         <v>67</v>
       </c>
-      <c t="s">
+      <c r="AB1" t="s">
         <v>135</v>
       </c>
-      <c t="s">
+      <c r="AC1" t="s">
         <v>201</v>
       </c>
-      <c t="s">
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-      <c t="s">
+      <c r="AE1" t="s">
         <v>78</v>
       </c>
-      <c t="s">
+      <c r="AF1" t="s">
         <v>144</v>
       </c>
-      <c t="s">
+      <c r="AG1" t="s">
         <v>210</v>
       </c>
-      <c t="s">
+      <c r="AH1" t="s">
         <v>10</v>
       </c>
-      <c t="s">
+      <c r="AI1" t="s">
         <v>79</v>
       </c>
-      <c t="s">
+      <c r="AJ1" t="s">
         <v>145</v>
       </c>
-      <c t="s">
+      <c r="AK1" t="s">
         <v>211</v>
       </c>
-      <c t="s">
+      <c r="AL1" t="s">
         <v>11</v>
       </c>
-      <c t="s">
+      <c r="AM1" t="s">
         <v>93</v>
       </c>
-      <c t="s">
+      <c r="AN1" t="s">
         <v>160</v>
       </c>
-      <c t="s">
+      <c r="AO1" t="s">
         <v>225</v>
       </c>
-      <c t="s">
+      <c r="AP1" t="s">
         <v>25</v>
       </c>
-      <c t="s">
+      <c r="AQ1" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="AR1" t="s">
         <v>161</v>
       </c>
-      <c t="s">
+      <c r="AS1" t="s">
         <v>226</v>
       </c>
-      <c t="s">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c t="s">
+      <c r="AU1" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="AV1" t="s">
         <v>183</v>
       </c>
-      <c t="s">
+      <c r="AW1" t="s">
         <v>247</v>
       </c>
-      <c t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c t="s">
+      <c r="AY1" t="s">
         <v>116</v>
       </c>
-      <c t="s">
+      <c r="AZ1" t="s">
         <v>184</v>
       </c>
-      <c t="s">
+      <c r="BA1" t="s">
         <v>2</v>
       </c>
-      <c t="s">
+      <c r="BB1" t="s">
         <v>68</v>
       </c>
-      <c t="s">
+      <c r="BC1" t="s">
         <v>146</v>
       </c>
-      <c t="s">
+      <c r="BD1" t="s">
         <v>212</v>
       </c>
-      <c t="s">
+      <c r="BE1" t="s">
         <v>12</v>
       </c>
-      <c t="s">
+      <c r="BF1" t="s">
         <v>80</v>
       </c>
-      <c t="s">
+      <c r="BG1" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="BH1" t="s">
         <v>213</v>
       </c>
-      <c t="s">
+      <c r="BI1" t="s">
         <v>13</v>
       </c>
-      <c t="s">
+      <c r="BJ1" t="s">
         <v>81</v>
       </c>
-      <c t="s">
+      <c r="BK1" t="s">
         <v>148</v>
       </c>
-      <c t="s">
+      <c r="BL1" t="s">
         <v>227</v>
       </c>
-      <c t="s">
+      <c r="BM1" t="s">
         <v>27</v>
       </c>
-      <c t="s">
+      <c r="BN1" t="s">
         <v>96</v>
       </c>
-      <c t="s">
+      <c r="BO1" t="s">
         <v>162</v>
       </c>
-      <c t="s">
+      <c r="BP1" t="s">
         <v>228</v>
       </c>
-      <c t="s">
+      <c r="BQ1" t="s">
         <v>28</v>
       </c>
-      <c t="s">
+      <c r="BR1" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="BS1" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="BT1" t="s">
         <v>229</v>
       </c>
-      <c t="s">
+      <c r="BU1" t="s">
         <v>48</v>
       </c>
-      <c t="s">
+      <c r="BV1" t="s">
         <v>117</v>
       </c>
-      <c t="s">
+      <c r="BW1" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="BX1" t="s">
         <v>248</v>
       </c>
-      <c t="s">
+      <c r="BY1" t="s">
         <v>49</v>
       </c>
-      <c t="s">
+      <c r="BZ1" t="s">
         <v>118</v>
       </c>
-      <c t="s">
+      <c r="CA1" t="s">
         <v>214</v>
       </c>
-      <c t="s">
+      <c r="CB1" t="s">
         <v>14</v>
       </c>
-      <c t="s">
+      <c r="CC1" t="s">
         <v>82</v>
       </c>
-      <c t="s">
+      <c r="CD1" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="CE1" t="s">
         <v>215</v>
       </c>
-      <c t="s">
+      <c r="CF1" t="s">
         <v>15</v>
       </c>
-      <c t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c t="s">
+      <c r="CH1" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="CI1" t="s">
         <v>216</v>
       </c>
-      <c t="s">
+      <c r="CJ1" t="s">
         <v>29</v>
       </c>
-      <c t="s">
+      <c r="CK1" t="s">
         <v>98</v>
       </c>
-      <c t="s">
+      <c r="CL1" t="s">
         <v>164</v>
       </c>
-      <c t="s">
+      <c r="CM1" t="s">
         <v>230</v>
       </c>
-      <c t="s">
+      <c r="CN1" t="s">
         <v>30</v>
       </c>
-      <c t="s">
+      <c r="CO1" t="s">
         <v>99</v>
       </c>
-      <c t="s">
+      <c r="CP1" t="s">
         <v>165</v>
       </c>
-      <c t="s">
+      <c r="CQ1" t="s">
         <v>231</v>
       </c>
-      <c t="s">
+      <c r="CR1" t="s">
         <v>31</v>
       </c>
-      <c t="s">
+      <c r="CS1" t="s">
         <v>119</v>
       </c>
-      <c t="s">
+      <c r="CT1" t="s">
         <v>186</v>
       </c>
-      <c t="s">
+      <c r="CU1" t="s">
         <v>249</v>
       </c>
-      <c t="s">
+      <c r="CV1" t="s">
         <v>50</v>
       </c>
-      <c t="s">
+      <c r="CW1" t="s">
         <v>120</v>
       </c>
-      <c t="s">
+      <c r="CX1" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="CY1" t="s">
         <v>250</v>
       </c>
-      <c t="s">
+      <c r="CZ1" t="s">
         <v>51</v>
       </c>
-      <c t="s">
+      <c r="DA1" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="DB1" t="s">
         <v>217</v>
       </c>
-      <c t="s">
+      <c r="DC1" t="s">
         <v>16</v>
       </c>
-      <c t="s">
+      <c r="DD1" t="s">
         <v>84</v>
       </c>
-      <c t="s">
+      <c r="DE1" t="s">
         <v>152</v>
       </c>
-      <c t="s">
+      <c r="DF1" t="s">
         <v>218</v>
       </c>
-      <c t="s">
+      <c r="DG1" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="DH1" t="s">
         <v>85</v>
       </c>
-      <c t="s">
+      <c r="DI1" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="DJ1" t="s">
         <v>232</v>
       </c>
-      <c t="s">
+      <c r="DK1" t="s">
         <v>32</v>
       </c>
-      <c t="s">
+      <c r="DL1" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="DM1" t="s">
         <v>167</v>
       </c>
-      <c t="s">
+      <c r="DN1" t="s">
         <v>233</v>
       </c>
-      <c t="s">
+      <c r="DO1" t="s">
         <v>33</v>
       </c>
-      <c t="s">
+      <c r="DP1" t="s">
         <v>101</v>
       </c>
-      <c t="s">
+      <c r="DQ1" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="DR1" t="s">
         <v>251</v>
       </c>
-      <c t="s">
+      <c r="DS1" t="s">
         <v>52</v>
       </c>
-      <c t="s">
+      <c r="DT1" t="s">
         <v>121</v>
       </c>
-      <c t="s">
+      <c r="DU1" t="s">
         <v>188</v>
       </c>
-      <c t="s">
+      <c r="DV1" t="s">
         <v>252</v>
       </c>
-      <c t="s">
+      <c r="DW1" t="s">
         <v>53</v>
       </c>
-      <c t="s">
+      <c r="DX1" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="DY1" t="s">
         <v>189</v>
       </c>
-      <c t="s">
+      <c r="DZ1" t="s">
         <v>253</v>
       </c>
-      <c t="s">
+      <c r="EA1" t="s">
         <v>86</v>
       </c>
-      <c t="s">
+      <c r="EB1" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="EC1" t="s">
         <v>219</v>
       </c>
-      <c t="s">
+      <c r="ED1" t="s">
         <v>18</v>
       </c>
-      <c t="s">
+      <c r="EE1" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="EF1" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="EG1" t="s">
         <v>234</v>
       </c>
-      <c t="s">
+      <c r="EH1" t="s">
         <v>34</v>
       </c>
-      <c t="s">
+      <c r="EI1" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="EJ1" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="EK1" t="s">
         <v>235</v>
       </c>
-      <c t="s">
+      <c r="EL1" t="s">
         <v>35</v>
       </c>
-      <c t="s">
+      <c r="EM1" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="EN1" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="EO1" t="s">
         <v>236</v>
       </c>
-      <c t="s">
+      <c r="EP1" t="s">
         <v>54</v>
       </c>
-      <c t="s">
+      <c r="EQ1" t="s">
         <v>123</v>
       </c>
-      <c t="s">
+      <c r="ER1" t="s">
         <v>190</v>
       </c>
-      <c t="s">
+      <c r="ES1" t="s">
         <v>254</v>
       </c>
-      <c t="s">
+      <c r="ET1" t="s">
         <v>55</v>
       </c>
-      <c t="s">
+      <c r="EU1" t="s">
         <v>124</v>
       </c>
-      <c t="s">
+      <c r="EV1" t="s">
         <v>191</v>
       </c>
-      <c t="s">
+      <c r="EW1" t="s">
         <v>255</v>
       </c>
-      <c t="s">
+      <c r="EX1" t="s">
         <v>56</v>
       </c>
-      <c t="s">
+      <c r="EY1" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="EZ1" t="s">
         <v>202</v>
       </c>
-      <c t="s">
+      <c r="FA1" t="s">
         <v>19</v>
       </c>
-      <c t="s">
+      <c r="FB1" t="s">
         <v>88</v>
       </c>
-      <c t="s">
+      <c r="FC1" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="FD1" t="s">
         <v>220</v>
       </c>
-      <c t="s">
+      <c r="FE1" t="s">
         <v>20</v>
       </c>
-      <c t="s">
+      <c r="FF1" t="s">
         <v>104</v>
       </c>
-      <c t="s">
+      <c r="FG1" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="FH1" t="s">
         <v>237</v>
       </c>
-      <c t="s">
+      <c r="FI1" t="s">
         <v>36</v>
       </c>
-      <c t="s">
+      <c r="FJ1" t="s">
         <v>105</v>
       </c>
-      <c t="s">
+      <c r="FK1" t="s">
         <v>172</v>
       </c>
-      <c t="s">
+      <c r="FL1" t="s">
         <v>238</v>
       </c>
-      <c t="s">
+      <c r="FM1" t="s">
         <v>37</v>
       </c>
-      <c t="s">
+      <c r="FN1" t="s">
         <v>106</v>
       </c>
-      <c t="s">
+      <c r="FO1" t="s">
         <v>192</v>
       </c>
-      <c t="s">
+      <c r="FP1" t="s">
         <v>256</v>
       </c>
-      <c t="s">
+      <c r="FQ1" t="s">
         <v>57</v>
       </c>
-      <c t="s">
+      <c r="FR1" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="FS1" t="s">
         <v>193</v>
       </c>
-      <c t="s">
+      <c r="FT1" t="s">
         <v>257</v>
       </c>
-      <c t="s">
+      <c r="FU1" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="FV1" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="FW1" t="s">
         <v>194</v>
       </c>
-      <c t="s">
+      <c r="FX1" t="s">
         <v>3</v>
       </c>
-      <c t="s">
+      <c r="FY1" t="s">
         <v>69</v>
       </c>
-      <c t="s">
+      <c r="FZ1" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="GA1" t="s">
         <v>221</v>
       </c>
-      <c t="s">
+      <c r="GB1" t="s">
         <v>21</v>
       </c>
-      <c t="s">
+      <c r="GC1" t="s">
         <v>89</v>
       </c>
-      <c t="s">
+      <c r="GD1" t="s">
         <v>173</v>
       </c>
-      <c t="s">
+      <c r="GE1" t="s">
         <v>239</v>
       </c>
-      <c t="s">
+      <c r="GF1" t="s">
         <v>38</v>
       </c>
-      <c t="s">
+      <c r="GG1" t="s">
         <v>107</v>
       </c>
-      <c t="s">
+      <c r="GH1" t="s">
         <v>174</v>
       </c>
-      <c t="s">
+      <c r="GI1" t="s">
         <v>240</v>
       </c>
-      <c t="s">
+      <c r="GJ1" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="GK1" t="s">
         <v>108</v>
       </c>
-      <c t="s">
+      <c r="GL1" t="s">
         <v>175</v>
       </c>
-      <c t="s">
+      <c r="GM1" t="s">
         <v>258</v>
       </c>
-      <c t="s">
+      <c r="GN1" t="s">
         <v>59</v>
       </c>
-      <c t="s">
+      <c r="GO1" t="s">
         <v>127</v>
       </c>
-      <c t="s">
+      <c r="GP1" t="s">
         <v>195</v>
       </c>
-      <c t="s">
+      <c r="GQ1" t="s">
         <v>259</v>
       </c>
-      <c t="s">
+      <c r="GR1" t="s">
         <v>60</v>
       </c>
-      <c t="s">
+      <c r="GS1" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="GT1" t="s">
         <v>196</v>
       </c>
-      <c t="s">
+      <c r="GU1" t="s">
         <v>260</v>
       </c>
-      <c t="s">
+      <c r="GV1" t="s">
         <v>70</v>
       </c>
-      <c t="s">
+      <c r="GW1" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="GX1" t="s">
         <v>203</v>
       </c>
-      <c t="s">
+      <c r="GY1" t="s">
         <v>4</v>
       </c>
-      <c t="s">
+      <c r="GZ1" t="s">
         <v>71</v>
       </c>
-      <c t="s">
+      <c r="HA1" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="HB1" t="s">
         <v>222</v>
       </c>
-      <c t="s">
+      <c r="HC1" t="s">
         <v>40</v>
       </c>
-      <c t="s">
+      <c r="HD1" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="HE1" t="s">
         <v>176</v>
       </c>
-      <c t="s">
+      <c r="HF1" t="s">
         <v>241</v>
       </c>
-      <c t="s">
+      <c r="HG1" t="s">
         <v>41</v>
       </c>
-      <c t="s">
+      <c r="HH1" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="HI1" t="s">
         <v>177</v>
       </c>
-      <c t="s">
+      <c r="HJ1" t="s">
         <v>242</v>
       </c>
-      <c t="s">
+      <c r="HK1" t="s">
         <v>42</v>
       </c>
-      <c t="s">
+      <c r="HL1" t="s">
         <v>129</v>
       </c>
-      <c t="s">
+      <c r="HM1" t="s">
         <v>197</v>
       </c>
-      <c t="s">
+      <c r="HN1" t="s">
         <v>261</v>
       </c>
-      <c t="s">
+      <c r="HO1" t="s">
         <v>61</v>
       </c>
-      <c t="s">
+      <c r="HP1" t="s">
         <v>130</v>
       </c>
-      <c t="s">
+      <c r="HQ1" t="s">
         <v>198</v>
       </c>
-      <c t="s">
+      <c r="HR1" t="s">
         <v>262</v>
       </c>
-      <c t="s">
+      <c r="HS1" t="s">
         <v>62</v>
       </c>
-      <c t="s">
+      <c r="HT1" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="HU1" t="s">
         <v>204</v>
       </c>
-      <c t="s">
+      <c r="HV1" t="s">
         <v>5</v>
       </c>
-      <c t="s">
+      <c r="HW1" t="s">
         <v>72</v>
       </c>
-      <c t="s">
+      <c r="HX1" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="HY1" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="HZ1" t="s">
         <v>6</v>
       </c>
-      <c t="s">
+      <c r="IA1" t="s">
         <v>111</v>
       </c>
-      <c t="s">
+      <c r="IB1" t="s">
         <v>178</v>
       </c>
-      <c t="s">
+      <c r="IC1" t="s">
         <v>243</v>
       </c>
-      <c t="s">
+      <c r="ID1" t="s">
         <v>43</v>
       </c>
-      <c t="s">
+      <c r="IE1" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="IF1" t="s">
         <v>179</v>
       </c>
-      <c t="s">
+      <c r="IG1" t="s">
         <v>244</v>
       </c>
-      <c t="s">
+      <c r="IH1" t="s">
         <v>44</v>
       </c>
-      <c t="s">
+      <c r="II1" t="s">
         <v>113</v>
       </c>
-      <c t="s">
+      <c r="IJ1" t="s">
         <v>180</v>
       </c>
-      <c t="s">
+      <c r="IK1" t="s">
         <v>263</v>
       </c>
-      <c t="s">
+      <c r="IL1" t="s">
         <v>63</v>
       </c>
-      <c t="s">
+      <c r="IM1" t="s">
         <v>132</v>
       </c>
-      <c t="s">
+      <c r="IN1" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="IO1" t="s">
         <v>264</v>
       </c>
-      <c t="s">
+      <c r="IP1" t="s">
         <v>64</v>
       </c>
-      <c t="s">
+      <c r="IQ1" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="IR1" t="s">
         <v>200</v>
       </c>
-      <c t="s">
+      <c r="IS1" t="s">
         <v>265</v>
       </c>
-      <c t="s">
+      <c r="IT1" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="IU1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row s="2" customFormat="1">
-      <c s="3" t="s">
+    <row r="2" s="2" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>206</v>
       </c>
-      <c s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
-      <c s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
+      <c r="EJ2" s="1"/>
+      <c r="EK2" s="1"/>
+      <c r="EL2" s="1"/>
+      <c r="EM2" s="1"/>
+      <c r="EN2" s="1"/>
+      <c r="EO2" s="1"/>
+      <c r="EP2" s="1"/>
+      <c r="EQ2" s="1"/>
+      <c r="ER2" s="1"/>
+      <c r="ES2" s="1"/>
+      <c r="ET2" s="1"/>
+      <c r="EU2" s="1"/>
+      <c r="EV2" s="1"/>
+      <c r="EW2" s="1"/>
+      <c r="EX2" s="1"/>
+      <c r="EY2" s="1"/>
+      <c r="EZ2" s="1"/>
+      <c r="FA2" s="1"/>
+      <c r="FB2" s="1"/>
+      <c r="FC2" s="1"/>
+      <c r="FD2" s="1"/>
+      <c r="FE2" s="1"/>
+      <c r="FF2" s="1"/>
+      <c r="FG2" s="1"/>
+      <c r="FH2" s="1"/>
+      <c r="FI2" s="1"/>
+      <c r="FJ2" s="1"/>
+      <c r="FK2" s="1"/>
+      <c r="FL2" s="1"/>
+      <c r="FM2" s="1"/>
+      <c r="FN2" s="1"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1"/>
+      <c r="FQ2" s="1"/>
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+      <c r="FZ2" s="1"/>
+      <c r="GA2" s="1"/>
+      <c r="GB2" s="1"/>
+      <c r="GC2" s="1"/>
+      <c r="GD2" s="1"/>
+      <c r="GE2" s="1"/>
+      <c r="GF2" s="1"/>
+      <c r="GG2" s="1"/>
+      <c r="GH2" s="1"/>
+      <c r="GI2" s="1"/>
+      <c r="GJ2" s="1"/>
+      <c r="GK2" s="1"/>
+      <c r="GL2" s="1"/>
+      <c r="GM2" s="1"/>
+      <c r="GN2" s="1"/>
+      <c r="GO2" s="1"/>
+      <c r="GP2" s="1"/>
+      <c r="GQ2" s="1"/>
+      <c r="GR2" s="1"/>
+      <c r="GS2" s="1"/>
+      <c r="GT2" s="1"/>
+      <c r="GU2" s="1"/>
+      <c r="GV2" s="1"/>
+      <c r="GW2" s="1"/>
+      <c r="GX2" s="1"/>
+      <c r="GY2" s="1"/>
+      <c r="GZ2" s="1"/>
+      <c r="HA2" s="1"/>
+      <c r="HB2" s="1"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="1"/>
+      <c r="HM2" s="1"/>
+      <c r="HN2" s="1"/>
+      <c r="HO2" s="1"/>
+      <c r="HP2" s="1"/>
+      <c r="HQ2" s="1"/>
+      <c r="HR2" s="1"/>
+      <c r="HS2" s="1"/>
+      <c r="HT2" s="1"/>
+      <c r="HU2" s="1"/>
+      <c r="HV2" s="1"/>
+      <c r="HW2" s="1"/>
+      <c r="HX2" s="1"/>
+      <c r="HY2" s="1"/>
+      <c r="HZ2" s="1"/>
+      <c r="IA2" s="1"/>
+      <c r="IB2" s="1"/>
+      <c r="IC2" s="1"/>
+      <c r="ID2" s="1"/>
+      <c r="IE2" s="1"/>
+      <c r="IF2" s="1"/>
+      <c r="IG2" s="1"/>
+      <c r="IH2" s="1"/>
+      <c r="II2" s="1"/>
+      <c r="IJ2" s="1"/>
+      <c r="IK2" s="1"/>
+      <c r="IL2" s="1"/>
+      <c r="IM2" s="1"/>
+      <c r="IN2" s="1"/>
+      <c r="IO2" s="1"/>
+      <c r="IP2" s="1"/>
+      <c r="IQ2" s="1"/>
+      <c r="IR2" s="1"/>
+      <c r="IS2" s="1"/>
+      <c r="IT2" s="1"/>
+      <c r="IU2" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="3" t="s">
+    <row r="3" s="2" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>206</v>
       </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
+      <c r="IU3" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="3" t="s">
+    <row r="4" s="2" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>245</v>
       </c>
-      <c s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>90</v>
       </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
+      <c r="ES4" s="1"/>
+      <c r="ET4" s="1"/>
+      <c r="EU4" s="1"/>
+      <c r="EV4" s="1"/>
+      <c r="EW4" s="1"/>
+      <c r="EX4" s="1"/>
+      <c r="EY4" s="1"/>
+      <c r="EZ4" s="1"/>
+      <c r="FA4" s="1"/>
+      <c r="FB4" s="1"/>
+      <c r="FC4" s="1"/>
+      <c r="FD4" s="1"/>
+      <c r="FE4" s="1"/>
+      <c r="FF4" s="1"/>
+      <c r="FG4" s="1"/>
+      <c r="FH4" s="1"/>
+      <c r="FI4" s="1"/>
+      <c r="FJ4" s="1"/>
+      <c r="FK4" s="1"/>
+      <c r="FL4" s="1"/>
+      <c r="FM4" s="1"/>
+      <c r="FN4" s="1"/>
+      <c r="FO4" s="1"/>
+      <c r="FP4" s="1"/>
+      <c r="FQ4" s="1"/>
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+      <c r="FZ4" s="1"/>
+      <c r="GA4" s="1"/>
+      <c r="GB4" s="1"/>
+      <c r="GC4" s="1"/>
+      <c r="GD4" s="1"/>
+      <c r="GE4" s="1"/>
+      <c r="GF4" s="1"/>
+      <c r="GG4" s="1"/>
+      <c r="GH4" s="1"/>
+      <c r="GI4" s="1"/>
+      <c r="GJ4" s="1"/>
+      <c r="GK4" s="1"/>
+      <c r="GL4" s="1"/>
+      <c r="GM4" s="1"/>
+      <c r="GN4" s="1"/>
+      <c r="GO4" s="1"/>
+      <c r="GP4" s="1"/>
+      <c r="GQ4" s="1"/>
+      <c r="GR4" s="1"/>
+      <c r="GS4" s="1"/>
+      <c r="GT4" s="1"/>
+      <c r="GU4" s="1"/>
+      <c r="GV4" s="1"/>
+      <c r="GW4" s="1"/>
+      <c r="GX4" s="1"/>
+      <c r="GY4" s="1"/>
+      <c r="GZ4" s="1"/>
+      <c r="HA4" s="1"/>
+      <c r="HB4" s="1"/>
+      <c r="HC4" s="1"/>
+      <c r="HD4" s="1"/>
+      <c r="HE4" s="1"/>
+      <c r="HF4" s="1"/>
+      <c r="HG4" s="1"/>
+      <c r="HH4" s="1"/>
+      <c r="HI4" s="1"/>
+      <c r="HJ4" s="1"/>
+      <c r="HK4" s="1"/>
+      <c r="HL4" s="1"/>
+      <c r="HM4" s="1"/>
+      <c r="HN4" s="1"/>
+      <c r="HO4" s="1"/>
+      <c r="HP4" s="1"/>
+      <c r="HQ4" s="1"/>
+      <c r="HR4" s="1"/>
+      <c r="HS4" s="1"/>
+      <c r="HT4" s="1"/>
+      <c r="HU4" s="1"/>
+      <c r="HV4" s="1"/>
+      <c r="HW4" s="1"/>
+      <c r="HX4" s="1"/>
+      <c r="HY4" s="1"/>
+      <c r="HZ4" s="1"/>
+      <c r="IA4" s="1"/>
+      <c r="IB4" s="1"/>
+      <c r="IC4" s="1"/>
+      <c r="ID4" s="1"/>
+      <c r="IE4" s="1"/>
+      <c r="IF4" s="1"/>
+      <c r="IG4" s="1"/>
+      <c r="IH4" s="1"/>
+      <c r="II4" s="1"/>
+      <c r="IJ4" s="1"/>
+      <c r="IK4" s="1"/>
+      <c r="IL4" s="1"/>
+      <c r="IM4" s="1"/>
+      <c r="IN4" s="1"/>
+      <c r="IO4" s="1"/>
+      <c r="IP4" s="1"/>
+      <c r="IQ4" s="1"/>
+      <c r="IR4" s="1"/>
+      <c r="IS4" s="1"/>
+      <c r="IT4" s="1"/>
+      <c r="IU4" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="3" t="s">
+    <row r="5" s="2" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>245</v>
       </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
+      <c r="EY5" s="1"/>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1"/>
+      <c r="FB5" s="1"/>
+      <c r="FC5" s="1"/>
+      <c r="FD5" s="1"/>
+      <c r="FE5" s="1"/>
+      <c r="FF5" s="1"/>
+      <c r="FG5" s="1"/>
+      <c r="FH5" s="1"/>
+      <c r="FI5" s="1"/>
+      <c r="FJ5" s="1"/>
+      <c r="FK5" s="1"/>
+      <c r="FL5" s="1"/>
+      <c r="FM5" s="1"/>
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+      <c r="FZ5" s="1"/>
+      <c r="GA5" s="1"/>
+      <c r="GB5" s="1"/>
+      <c r="GC5" s="1"/>
+      <c r="GD5" s="1"/>
+      <c r="GE5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
+      <c r="GZ5" s="1"/>
+      <c r="HA5" s="1"/>
+      <c r="HB5" s="1"/>
+      <c r="HC5" s="1"/>
+      <c r="HD5" s="1"/>
+      <c r="HE5" s="1"/>
+      <c r="HF5" s="1"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="1"/>
+      <c r="HM5" s="1"/>
+      <c r="HN5" s="1"/>
+      <c r="HO5" s="1"/>
+      <c r="HP5" s="1"/>
+      <c r="HQ5" s="1"/>
+      <c r="HR5" s="1"/>
+      <c r="HS5" s="1"/>
+      <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
+      <c r="HV5" s="1"/>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
+      <c r="HY5" s="1"/>
+      <c r="HZ5" s="1"/>
+      <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="1"/>
+      <c r="IG5" s="1"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="1"/>
+      <c r="IN5" s="1"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
+      <c r="IQ5" s="1"/>
+      <c r="IR5" s="1"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="1"/>
+      <c r="IU5" s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3182,7 +3180,7 @@
     <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row r="1" ht="12.75" customHeight="1" customFormat="1"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3206,7 +3204,7 @@
     <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row r="1" ht="12.75" customHeight="1" customFormat="1"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3230,7 +3228,7 @@
     <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row r="1" ht="12.75" customHeight="1" customFormat="1"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3251,24 +3249,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="211.078125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="211.078125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
+    <row r="1" ht="12.75" customHeight="1" customFormat="1">
+      <c r="A1" t="s">
         <v>181</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row s="2" customFormat="1">
-      <c s="3" t="s">
+    <row r="2" s="2" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c s="7" t="str">
+      <c r="B2" s="8" t="str">
         <f>"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
         <v>DSN=Flights;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3294,111 +3292,111 @@
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="210.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="210.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.41796875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1">
-      <c t="s">
+    <row r="1" ht="12.75" customHeight="1" customFormat="1">
+      <c r="A1" t="s">
         <v>181</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>114</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c t="s">
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="2" s="2" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B2" s="4" t="str">
         <f t="shared" si="0" ref="B2:B8">"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="3" s="2" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="4" s="2" customFormat="1">
+      <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
     </row>
-    <row ht="12.75" customHeight="1" s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="5" ht="12.75" customHeight="1" s="2" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="6" s="2" customFormat="1">
+      <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="7" s="2" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
     </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
+    <row r="8" s="2" customFormat="1">
+      <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="3" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DSN=Flights;Database=C:\Users\somone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3414,54 +3412,16 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="9" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book Flights/Default.xlsx
+++ b/Book Flights/Default.xlsx
@@ -1017,16 +1017,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1337,9 +1337,9 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="255" width="9.140625" style="6" customWidth="1"/>
+    <col min="4" max="255" width="9.140625" style="5" customWidth="1"/>
     <col min="256" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2371,7 +2371,7 @@
       <c r="IR2" s="1"/>
       <c r="IS2" s="1"/>
       <c r="IT2" s="1"/>
-      <c r="IU2" s="5"/>
+      <c r="IU2" s="6"/>
     </row>
     <row r="3" s="2" customFormat="1">
       <c r="A3" s="4" t="s">
@@ -2632,7 +2632,7 @@
       <c r="IR3" s="1"/>
       <c r="IS3" s="1"/>
       <c r="IT3" s="1"/>
-      <c r="IU3" s="5"/>
+      <c r="IU3" s="6"/>
     </row>
     <row r="4" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
@@ -2893,7 +2893,7 @@
       <c r="IR4" s="1"/>
       <c r="IS4" s="1"/>
       <c r="IT4" s="1"/>
-      <c r="IU4" s="5"/>
+      <c r="IU4" s="6"/>
     </row>
     <row r="5" s="2" customFormat="1">
       <c r="A5" s="4" t="s">
@@ -3154,7 +3154,7 @@
       <c r="IR5" s="1"/>
       <c r="IS5" s="1"/>
       <c r="IT5" s="1"/>
-      <c r="IU5" s="5"/>
+      <c r="IU5" s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3266,7 +3266,7 @@
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>"DSN=Flights;Database=C:\Users\"&amp;A2&amp;"\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD="</f>
         <v>DSN=Flights;Database=C:\Users\someone\AppData\Local\UFT\Demo\DB\Flights.s3db;StepAPI=0;SyncPragma=;NoTXN=0;Timeout=;ShortNames=0;LongNames=0;NoCreat=0;NoWCHAR=0;FKSupport=0;JournalMode=;OEMCP=0;LoadExt=;BigInt=0;JDConv=0;PWD=</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" s="2" customFormat="1">
       <c r="A4" s="1" t="s">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="2" customFormat="1">
       <c r="A5" s="1" t="s">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" s="2" customFormat="1">
       <c r="A6" s="1" t="s">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" s="2" customFormat="1">
       <c r="A8" s="1" t="s">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3418,7 +3418,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="7" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
